--- a/biology/Botanique/Carapichea_guianensis/Carapichea_guianensis.xlsx
+++ b/biology/Botanique/Carapichea_guianensis/Carapichea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carapichea guianensis est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Carapichea.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée en propose la description suivante de Carapichea guianensis :
 « [Cephaelis] guianensis Brem. (Carapichea g. Aubl., Ce. Aubletii Dec., Psychotria involucrata Sw.). Sous-arbrisseau glabre à tiges cylindriques ; feuilles de 0,10-0,17 sur 0,02-0,08, elliptiques acuminées ou caudées à base atténuée en pétiole, herbacées, avec 6-7 paires de nervures, stipules oblongues à 2 lobes obtus, très velues à l'aisselle ; capitules à pédoncule 4-gône, involucrés par 2 paires de bractées blanches décussées à limbe de 0,02 sur 6 mm. lancéolé et partie concave de 6 mm. sur 8 ; fleurs blanches à calice très court, corolle de 8 mm. environ, en entonnoir glabre en dehors ; fruit subglobuleux 10-côtelé, graines sillonnées. - Herbier Lemée : Mathoury, feuilles d'un vert jaunâtre sur le sec. »
-— Albert Lemée, 1953[4].</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Carapichea guianensis est présent du Suriname au Brésil, en passant la Guyane.
 </t>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taxonomie de Carapichea guianensis a été étudiée[5],[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxonomie de Carapichea guianensis a été étudiée.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant[8] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « CARAPICHEA Guianenſis. (TABULA 64.)
 Frutex, quinque &amp; ſex-pedalis, ramoſus ; ramulis nodoſis ; folia oppoſita, ovata, acuta, glabra, integerrima, petiolata. Stipulæ binæ, oppofitæ, acutæ, ad baſim biglanduloſæ ; utrinquè una ad baſim petiolorum. Corolla alba.
 Florebat, &amp; fructum ferebat Maio.
